--- a/LCGSen/工作记录.xlsx
+++ b/LCGSen/工作记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -112,6 +112,9 @@
     <t>请假（家里结婚）31号撤出供电服务</t>
   </si>
   <si>
+    <t>银座</t>
+  </si>
+  <si>
     <t>电力供需研究实验室升级改造设计文档、用户手册、技术手册、系统部署方案研究及分析。</t>
   </si>
 </sst>
@@ -121,16 +124,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,9 +151,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,17 +173,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,8 +196,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -211,7 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,36 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,23 +275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +320,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,37 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,91 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +396,90 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -494,25 +490,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -533,22 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,151 +572,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:D446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2433,7 +2429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" s="9">
         <v>43313</v>
       </c>
@@ -2443,16 +2439,22 @@
       <c r="C155" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="9">
         <v>43314</v>
       </c>
       <c r="B156" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
         <v>32</v>
-      </c>
-      <c r="C156" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3">

--- a/LCGSen/工作记录.xlsx
+++ b/LCGSen/工作记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>日期</t>
   </si>
@@ -117,16 +117,22 @@
   <si>
     <t>电力供需研究实验室升级改造设计文档、用户手册、技术手册、系统部署方案研究及分析。</t>
   </si>
+  <si>
+    <t>电力供需研究实验室文档编写，及可行性分析</t>
+  </si>
+  <si>
+    <t>决策</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,13 +144,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -152,7 +151,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,16 +180,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,40 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -252,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -260,12 +257,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -273,9 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,13 +302,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,103 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,43 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,80 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,16 +519,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +611,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,8 +1099,8 @@
   <sheetPr/>
   <dimension ref="A1:D446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2461,6 +2467,9 @@
       <c r="A157" s="9">
         <v>43315</v>
       </c>
+      <c r="B157" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
@@ -2484,6 +2493,9 @@
     <row r="160" spans="1:3">
       <c r="A160" s="9">
         <v>43318</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
